--- a/appendix/mean_4ds_precision_macro_top4th.xlsx
+++ b/appendix/mean_4ds_precision_macro_top4th.xlsx
@@ -525,7 +525,7 @@
         <v>0.5590000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.574</v>
+        <v>0.579</v>
       </c>
       <c r="H3" t="n">
         <v>0.604</v>

--- a/appendix/mean_4ds_precision_macro_top4th.xlsx
+++ b/appendix/mean_4ds_precision_macro_top4th.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.438</v>
+        <v>0.452</v>
       </c>
       <c r="D5" t="n">
-        <v>0.526</v>
+        <v>0.549</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.579</v>
       </c>
       <c r="F5" t="n">
-        <v>0.592</v>
+        <v>0.613</v>
       </c>
       <c r="G5" t="n">
-        <v>0.613</v>
+        <v>0.628</v>
       </c>
       <c r="H5" t="n">
-        <v>0.628</v>
+        <v>0.642</v>
       </c>
     </row>
     <row r="6">
@@ -618,23 +618,23 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.441</v>
+        <v>0.452</v>
       </c>
       <c r="D7" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.573</v>
+        <v>0.579</v>
       </c>
       <c r="F7" t="n">
-        <v>0.612</v>
+        <v>0.613</v>
       </c>
       <c r="G7" t="n">
         <v>0.639</v>
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="D8" t="n">
-        <v>0.649</v>
+        <v>0.639</v>
       </c>
       <c r="E8" t="n">
-        <v>0.671</v>
+        <v>0.657</v>
       </c>
       <c r="F8" t="n">
-        <v>0.708</v>
+        <v>0.698</v>
       </c>
       <c r="G8" t="n">
-        <v>0.725</v>
+        <v>0.718</v>
       </c>
       <c r="H8" t="n">
-        <v>0.73</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.584</v>
+        <v>0.569</v>
       </c>
       <c r="C9" t="n">
-        <v>0.618</v>
+        <v>0.631</v>
       </c>
       <c r="D9" t="n">
-        <v>0.713</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.715</v>
+        <v>0.695</v>
       </c>
       <c r="F9" t="n">
-        <v>0.73</v>
+        <v>0.733</v>
       </c>
       <c r="G9" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.752</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.761</v>
       </c>
     </row>
   </sheetData>
